--- a/doc/AlterNative DOCS/Performance/PT003.xlsx
+++ b/doc/AlterNative DOCS/Performance/PT003.xlsx
@@ -528,11 +528,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="238857648"/>
-        <c:axId val="238856528"/>
+        <c:axId val="233746688"/>
+        <c:axId val="233744448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="238857648"/>
+        <c:axId val="233746688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -575,7 +575,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238856528"/>
+        <c:crossAx val="233744448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -583,7 +583,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="238856528"/>
+        <c:axId val="233744448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -634,7 +634,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238857648"/>
+        <c:crossAx val="233746688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -730,6 +730,40 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Target vs Language</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>N-Bodies</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1162,11 +1196,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="356800704"/>
-        <c:axId val="356801264"/>
+        <c:axId val="349985216"/>
+        <c:axId val="349985776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="356800704"/>
+        <c:axId val="349985216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1209,7 +1243,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="356801264"/>
+        <c:crossAx val="349985776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1217,7 +1251,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="356801264"/>
+        <c:axId val="349985776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1237,6 +1271,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (Normalized to C#)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1268,7 +1358,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="356800704"/>
+        <c:crossAx val="349985216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2407,10 +2497,10 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>99331</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>10457</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>86850</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2699,8 +2789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O37" sqref="O37"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P46" sqref="P46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
